--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program\All\KRSTI_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A92DD45-5A4A-4060-B0EF-32C96A033884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659142A-1196-432B-8A8D-29F61B87EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>melambai_kiri</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>stabil</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>gerakn 12 detik</t>
+  </si>
+  <si>
+    <t>servo pinggang 0 derajat</t>
+  </si>
+  <si>
+    <t>gerakan_45 derajat kanan</t>
+  </si>
+  <si>
+    <t>gerakan_ 0 derajat</t>
+  </si>
+  <si>
+    <t>gerakan pinggang kiri</t>
+  </si>
+  <si>
+    <t>gerakan pinggang tengah kedua</t>
+  </si>
+  <si>
+    <t>gerakan pinggang tengah pertama</t>
+  </si>
+  <si>
+    <t>gerakan pinggang kanan pertama</t>
+  </si>
+  <si>
+    <t>gerakn pinggang kanan kedua</t>
   </si>
 </sst>
 </file>
@@ -97,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,11 +150,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +194,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,9 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1B77E-0532-4B80-BA53-4335BB789294}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -470,9 +531,12 @@
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -485,8 +549,38 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>75</v>
       </c>
@@ -499,8 +593,29 @@
       <c r="D2" s="5">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>180</v>
+      </c>
+      <c r="F2">
+        <v>225</v>
+      </c>
+      <c r="G2">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>180</v>
+      </c>
+      <c r="K2">
+        <v>180</v>
+      </c>
+      <c r="L2">
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>115</v>
       </c>
@@ -513,8 +628,29 @@
       <c r="D3" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>225</v>
+      </c>
+      <c r="G3">
+        <v>225</v>
+      </c>
+      <c r="J3">
+        <v>250</v>
+      </c>
+      <c r="K3">
+        <v>180</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>180</v>
       </c>
@@ -527,8 +663,29 @@
       <c r="D4" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>200</v>
+      </c>
+      <c r="F4" s="9">
+        <v>225</v>
+      </c>
+      <c r="G4" s="9">
+        <v>210</v>
+      </c>
+      <c r="J4" s="11">
+        <v>45</v>
+      </c>
+      <c r="K4" s="11">
+        <v>270</v>
+      </c>
+      <c r="L4" s="11">
+        <v>270</v>
+      </c>
+      <c r="M4" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -541,8 +698,32 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>90</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>90</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>115</v>
       </c>
@@ -556,7 +737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70</v>
       </c>
@@ -570,7 +751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>25</v>
       </c>
@@ -584,7 +765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>180</v>
       </c>
@@ -598,7 +779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>110</v>
       </c>
@@ -611,8 +792,28 @@
       <c r="D10" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="9">
+        <v>180</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>180</v>
+      </c>
+      <c r="I10" s="9">
+        <v>180</v>
+      </c>
+      <c r="J10" s="9">
+        <v>180</v>
+      </c>
+      <c r="K10" s="9">
+        <v>180</v>
+      </c>
+      <c r="M10" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -626,7 +827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -640,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>80</v>
       </c>
@@ -654,7 +855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>90</v>
       </c>
@@ -667,8 +868,29 @@
       <c r="D14" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
+        <v>180</v>
+      </c>
+      <c r="F14" s="9">
+        <v>90</v>
+      </c>
+      <c r="G14" s="9">
+        <v>180</v>
+      </c>
+      <c r="J14" s="11">
+        <v>180</v>
+      </c>
+      <c r="K14" s="11">
+        <v>180</v>
+      </c>
+      <c r="L14" s="11">
+        <v>180</v>
+      </c>
+      <c r="M14" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>120</v>
       </c>
@@ -681,8 +903,29 @@
       <c r="D15" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <v>160</v>
+      </c>
+      <c r="F15" s="9">
+        <v>100</v>
+      </c>
+      <c r="G15" s="9">
+        <v>90</v>
+      </c>
+      <c r="J15" s="11">
+        <v>45</v>
+      </c>
+      <c r="K15" s="11">
+        <v>160</v>
+      </c>
+      <c r="L15" s="11">
+        <v>280</v>
+      </c>
+      <c r="M15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>115</v>
       </c>
@@ -695,8 +938,26 @@
       <c r="D16" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9">
+        <v>210</v>
+      </c>
+      <c r="G16" s="10">
+        <v>260</v>
+      </c>
+      <c r="J16">
+        <v>210</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>120</v>
       </c>
@@ -708,6 +969,30 @@
       </c>
       <c r="D17" s="2">
         <v>120</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>90</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>90</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program\All\KRSTI_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659142A-1196-432B-8A8D-29F61B87EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55940A-1CE3-4EF5-B02A-9B0625045760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,13 +196,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +519,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,16 +669,16 @@
       <c r="G4" s="9">
         <v>210</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="1">
         <v>45</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="1">
         <v>270</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="1">
         <v>270</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="1">
         <v>200</v>
       </c>
     </row>
@@ -707,19 +704,19 @@
       <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="11">
-        <v>90</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>90</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="J5" s="1">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>90</v>
+      </c>
+      <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -877,16 +874,16 @@
       <c r="G14" s="9">
         <v>180</v>
       </c>
-      <c r="J14" s="11">
-        <v>180</v>
-      </c>
-      <c r="K14" s="11">
-        <v>180</v>
-      </c>
-      <c r="L14" s="11">
-        <v>180</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="J14" s="1">
+        <v>180</v>
+      </c>
+      <c r="K14" s="1">
+        <v>180</v>
+      </c>
+      <c r="L14" s="1">
+        <v>180</v>
+      </c>
+      <c r="M14" s="1">
         <v>180</v>
       </c>
     </row>
@@ -912,16 +909,16 @@
       <c r="G15" s="9">
         <v>90</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="1">
         <v>45</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="1">
         <v>160</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="1">
         <v>280</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="1">
         <v>100</v>
       </c>
     </row>
@@ -976,22 +973,22 @@
       <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
-        <v>90</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>90</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="G17" s="1">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>90</v>
+      </c>
+      <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program\All\KRSTI_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55940A-1CE3-4EF5-B02A-9B0625045760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E35BF8-4C1F-4A91-92DE-FC304F717D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
+    <workbookView xWindow="6225" yWindow="1455" windowWidth="28800" windowHeight="11385" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>melambai_kiri</t>
   </si>
@@ -48,36 +48,6 @@
   </si>
   <si>
     <t>stabil</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>gerakn 12 detik</t>
-  </si>
-  <si>
-    <t>servo pinggang 0 derajat</t>
-  </si>
-  <si>
-    <t>gerakan_45 derajat kanan</t>
-  </si>
-  <si>
-    <t>gerakan_ 0 derajat</t>
-  </si>
-  <si>
-    <t>gerakan pinggang kiri</t>
-  </si>
-  <si>
-    <t>gerakan pinggang tengah kedua</t>
-  </si>
-  <si>
-    <t>gerakan pinggang tengah pertama</t>
-  </si>
-  <si>
-    <t>gerakan pinggang kanan pertama</t>
-  </si>
-  <si>
-    <t>gerakn pinggang kanan kedua</t>
   </si>
 </sst>
 </file>
@@ -518,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1B77E-0532-4B80-BA53-4335BB789294}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="E1:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,36 +516,6 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -590,27 +530,6 @@
       <c r="D2" s="5">
         <v>110</v>
       </c>
-      <c r="E2">
-        <v>180</v>
-      </c>
-      <c r="F2">
-        <v>225</v>
-      </c>
-      <c r="G2">
-        <v>180</v>
-      </c>
-      <c r="J2">
-        <v>180</v>
-      </c>
-      <c r="K2">
-        <v>180</v>
-      </c>
-      <c r="L2">
-        <v>180</v>
-      </c>
-      <c r="M2">
-        <v>180</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -625,27 +544,6 @@
       <c r="D3" s="5">
         <v>150</v>
       </c>
-      <c r="E3">
-        <v>180</v>
-      </c>
-      <c r="F3">
-        <v>225</v>
-      </c>
-      <c r="G3">
-        <v>225</v>
-      </c>
-      <c r="J3">
-        <v>250</v>
-      </c>
-      <c r="K3">
-        <v>180</v>
-      </c>
-      <c r="L3">
-        <v>300</v>
-      </c>
-      <c r="M3">
-        <v>240</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -660,27 +558,13 @@
       <c r="D4" s="2">
         <v>180</v>
       </c>
-      <c r="E4" s="9">
-        <v>200</v>
-      </c>
-      <c r="F4" s="9">
-        <v>225</v>
-      </c>
-      <c r="G4" s="9">
-        <v>210</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1">
-        <v>270</v>
-      </c>
-      <c r="L4" s="1">
-        <v>270</v>
-      </c>
-      <c r="M4" s="1">
-        <v>200</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -695,30 +579,14 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>90</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>90</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>90</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -789,26 +657,14 @@
       <c r="D10" s="2">
         <v>110</v>
       </c>
-      <c r="E10" s="9">
-        <v>180</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>180</v>
-      </c>
-      <c r="I10" s="9">
-        <v>180</v>
-      </c>
-      <c r="J10" s="9">
-        <v>180</v>
-      </c>
-      <c r="K10" s="9">
-        <v>180</v>
-      </c>
-      <c r="M10" s="10">
-        <v>90</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -865,27 +721,13 @@
       <c r="D14" s="2">
         <v>90</v>
       </c>
-      <c r="E14" s="9">
-        <v>180</v>
-      </c>
-      <c r="F14" s="9">
-        <v>90</v>
-      </c>
-      <c r="G14" s="9">
-        <v>180</v>
-      </c>
-      <c r="J14" s="1">
-        <v>180</v>
-      </c>
-      <c r="K14" s="1">
-        <v>180</v>
-      </c>
-      <c r="L14" s="1">
-        <v>180</v>
-      </c>
-      <c r="M14" s="1">
-        <v>180</v>
-      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -900,27 +742,13 @@
       <c r="D15" s="2">
         <v>120</v>
       </c>
-      <c r="E15" s="9">
-        <v>160</v>
-      </c>
-      <c r="F15" s="9">
-        <v>100</v>
-      </c>
-      <c r="G15" s="9">
-        <v>90</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45</v>
-      </c>
-      <c r="K15" s="1">
-        <v>160</v>
-      </c>
-      <c r="L15" s="1">
-        <v>280</v>
-      </c>
-      <c r="M15" s="1">
-        <v>100</v>
-      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -935,24 +763,8 @@
       <c r="D16" s="2">
         <v>115</v>
       </c>
-      <c r="E16" s="9">
-        <v>210</v>
-      </c>
-      <c r="G16" s="10">
-        <v>260</v>
-      </c>
-      <c r="J16">
-        <v>210</v>
-      </c>
-      <c r="K16">
-        <v>250</v>
-      </c>
-      <c r="L16">
-        <v>250</v>
-      </c>
-      <c r="M16">
-        <v>210</v>
-      </c>
+      <c r="E16" s="9"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -967,30 +779,14 @@
       <c r="D17" s="2">
         <v>120</v>
       </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>90</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program\All\KRSTI_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E35BF8-4C1F-4A91-92DE-FC304F717D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE141E-A5D4-4598-9E41-2F9AD24A46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1455" windowWidth="28800" windowHeight="11385" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
+    <workbookView xWindow="-20610" yWindow="6765" windowWidth="20730" windowHeight="11160" xr2:uid="{B36270C3-7B58-4055-9D6B-DACFCE02E4D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="E1:N17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,21 +519,21 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3">
         <v>90</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>180</v>
